--- a/Sprint.xlsx
+++ b/Sprint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\CMPE 202\Optimize prime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohit/Documents/GitHub/CMPE202/team202-optimize-prime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9688752D-BFCA-423B-A987-F146186B55C8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B36D82-AE6B-1444-B4D4-7E5B00A6CE8F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{2E8EB649-303D-4EDC-B43A-32F5D99E9680}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16680" activeTab="1" xr2:uid="{2E8EB649-303D-4EDC-B43A-32F5D99E9680}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint" sheetId="1" r:id="rId1"/>
@@ -324,20 +324,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,9 +335,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,6 +344,22 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -584,6 +584,48 @@
                 <c:pt idx="13">
                   <c:v>109</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -763,6 +805,48 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,413 +1945,498 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1B8314-B193-45E7-895B-6DB1485D7003}">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:AF5"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5" t="s">
+      <c r="E1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="3" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="5" t="s">
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="6"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="3"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AE2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="6"/>
+      <c r="AG2" s="3"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="10">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="5">
         <v>43190</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>43191</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="5">
         <v>43192</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="5">
         <v>43193</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="5">
         <v>43194</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="5">
         <v>43195</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="5">
         <v>43196</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="5">
         <v>43197</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="5">
         <v>43198</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="5">
         <v>43199</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="5">
         <v>43200</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="5">
         <v>43201</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="5">
         <v>43202</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="5">
         <v>43203</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="5">
         <v>43204</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="5">
         <v>43205</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="5">
         <v>43206</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="5">
         <v>43207</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3" s="5">
         <v>43208</v>
       </c>
-      <c r="X3" s="10">
+      <c r="X3" s="5">
         <v>43209</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Y3" s="5">
         <v>43210</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="Z3" s="5">
         <v>43211</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AA3" s="5">
         <v>43212</v>
       </c>
-      <c r="AB3" s="10">
+      <c r="AB3" s="5">
         <v>43213</v>
       </c>
-      <c r="AC3" s="10">
+      <c r="AC3" s="5">
         <v>43214</v>
       </c>
-      <c r="AD3" s="10">
+      <c r="AD3" s="5">
         <v>43215</v>
       </c>
-      <c r="AE3" s="10">
+      <c r="AE3" s="5">
         <v>43216</v>
       </c>
-      <c r="AF3" s="10">
+      <c r="AF3" s="5">
         <v>43217</v>
       </c>
-      <c r="AG3" s="11"/>
+      <c r="AG3" s="6"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
         <f>D5-6</f>
         <v>186</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="7">
         <f>E4-5</f>
         <v>181</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="7">
         <f>F4-5</f>
         <v>176</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="7">
         <f>G4-5</f>
         <v>171</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="7">
         <f>H4-7</f>
         <v>164</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="7">
         <f>I4-6</f>
         <v>158</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="7">
         <f>J4-5</f>
         <v>153</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="7">
         <f>K4-8</f>
         <v>145</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="7">
         <f>L4-8</f>
         <v>137</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="7">
         <f t="shared" ref="N4:R4" si="0">M4-8</f>
         <v>129</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="7">
         <f>N4-7</f>
         <v>122</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="7">
         <f>O4-7</f>
         <v>115</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="7">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="7">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
+      <c r="S4" s="7">
+        <f>R4-7</f>
+        <v>92</v>
+      </c>
+      <c r="T4" s="7">
+        <f t="shared" ref="T4" si="1">S4-8</f>
+        <v>84</v>
+      </c>
+      <c r="U4" s="7">
+        <f>T4-7</f>
+        <v>77</v>
+      </c>
+      <c r="V4" s="7">
+        <f>U4-7</f>
+        <v>70</v>
+      </c>
+      <c r="W4" s="7">
+        <f>V4-6</f>
+        <v>64</v>
+      </c>
+      <c r="X4" s="7">
+        <f>W4-6</f>
+        <v>58</v>
+      </c>
+      <c r="Y4" s="7">
+        <f>X4-5</f>
+        <v>53</v>
+      </c>
+      <c r="Z4" s="7">
+        <f>Y4-8</f>
+        <v>45</v>
+      </c>
+      <c r="AA4" s="7">
+        <f>Z4-4</f>
+        <v>41</v>
+      </c>
+      <c r="AB4" s="7">
+        <f t="shared" ref="AB4" si="2">AA4-8</f>
+        <v>33</v>
+      </c>
+      <c r="AC4" s="7">
+        <f>AB4-7</f>
+        <v>26</v>
+      </c>
+      <c r="AD4" s="7">
+        <f t="shared" ref="AD4" si="3">AC4-8</f>
+        <v>18</v>
+      </c>
+      <c r="AE4" s="7">
+        <f t="shared" ref="AE4" si="4">AD4-8</f>
+        <v>10</v>
+      </c>
+      <c r="AF4" s="7">
+        <f t="shared" ref="AF4" si="5">AE4-8</f>
+        <v>2</v>
+      </c>
       <c r="AG4" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="12">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="7">
         <v>192</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="7">
         <f>SUM(E6:E22)</f>
         <v>193</v>
       </c>
-      <c r="F5" s="12">
-        <f t="shared" ref="F5:R5" si="1">SUM(F6:F22)</f>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:AF5" si="6">SUM(F6:F22)</f>
         <v>192</v>
       </c>
-      <c r="G5" s="12">
-        <f t="shared" si="1"/>
+      <c r="G5" s="7">
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
-      <c r="H5" s="12">
-        <f t="shared" si="1"/>
+      <c r="H5" s="7">
+        <f t="shared" si="6"/>
         <v>188</v>
       </c>
-      <c r="I5" s="12">
-        <f t="shared" si="1"/>
+      <c r="I5" s="7">
+        <f t="shared" si="6"/>
         <v>183</v>
       </c>
-      <c r="J5" s="12">
-        <f t="shared" si="1"/>
+      <c r="J5" s="7">
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
-      <c r="K5" s="12">
-        <f t="shared" si="1"/>
+      <c r="K5" s="7">
+        <f t="shared" si="6"/>
         <v>177</v>
       </c>
-      <c r="L5" s="12">
-        <f t="shared" si="1"/>
+      <c r="L5" s="7">
+        <f t="shared" si="6"/>
         <v>174</v>
       </c>
-      <c r="M5" s="12">
-        <f t="shared" si="1"/>
+      <c r="M5" s="7">
+        <f t="shared" si="6"/>
         <v>166</v>
       </c>
-      <c r="N5" s="12">
-        <f t="shared" si="1"/>
+      <c r="N5" s="7">
+        <f t="shared" si="6"/>
         <v>154</v>
       </c>
-      <c r="O5" s="12">
-        <f t="shared" si="1"/>
+      <c r="O5" s="7">
+        <f t="shared" si="6"/>
         <v>145</v>
       </c>
-      <c r="P5" s="12">
-        <f t="shared" si="1"/>
+      <c r="P5" s="7">
+        <f t="shared" si="6"/>
         <v>133</v>
       </c>
-      <c r="Q5" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q5" s="7">
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
-      <c r="R5" s="12">
-        <f t="shared" si="1"/>
+      <c r="R5" s="7">
+        <f t="shared" si="6"/>
         <v>109</v>
       </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
+      <c r="S5" s="7">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="W5" s="7">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="X5" s="7">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="Y5" s="7">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="Z5" s="7">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="AA5" s="7">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="AB5" s="7">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="AC5" s="7">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AD5" s="7">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="AE5" s="7">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AF5" s="7">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
       <c r="AG5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2279,66 +2448,94 @@
       <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="8">
         <v>4</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="8">
         <v>4</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="8">
         <v>4</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="8">
         <v>4</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="8">
         <v>3</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="8">
         <v>3</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="8">
         <v>3</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="9">
         <v>3</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="9">
         <v>3</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="9">
         <v>2</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="9">
         <v>1</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="9">
         <v>1</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="9">
         <v>1</v>
       </c>
-      <c r="R6" s="15">
-        <v>0</v>
-      </c>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="6"/>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0</v>
+      </c>
+      <c r="T6" s="8">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10">
+        <v>0</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0</v>
+      </c>
+      <c r="X6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
@@ -2348,66 +2545,94 @@
       <c r="D7" s="2">
         <v>10</v>
       </c>
-      <c r="E7" s="14">
-        <v>9</v>
-      </c>
-      <c r="F7" s="14">
-        <v>9</v>
-      </c>
-      <c r="G7" s="14">
-        <v>9</v>
-      </c>
-      <c r="H7" s="14">
-        <v>9</v>
-      </c>
-      <c r="I7" s="14">
+      <c r="E7" s="8">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8">
+        <v>9</v>
+      </c>
+      <c r="G7" s="8">
+        <v>9</v>
+      </c>
+      <c r="H7" s="8">
+        <v>9</v>
+      </c>
+      <c r="I7" s="8">
         <v>8</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="8">
         <v>8</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="8">
         <v>7</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="9">
         <v>6</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="9">
         <v>6</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="9">
         <v>5</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="9">
         <v>5</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="9">
         <v>5</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="9">
         <v>4</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="9">
         <v>3</v>
       </c>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="6"/>
+      <c r="S7" s="8">
+        <v>3</v>
+      </c>
+      <c r="T7" s="8">
+        <v>3</v>
+      </c>
+      <c r="U7" s="8">
+        <v>3</v>
+      </c>
+      <c r="V7" s="10">
+        <v>2</v>
+      </c>
+      <c r="W7" s="10">
+        <v>2</v>
+      </c>
+      <c r="X7" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
@@ -2417,66 +2642,94 @@
       <c r="D8" s="2">
         <v>10</v>
       </c>
-      <c r="E8" s="14">
-        <v>10</v>
-      </c>
-      <c r="F8" s="14">
-        <v>10</v>
-      </c>
-      <c r="G8" s="14">
-        <v>10</v>
-      </c>
-      <c r="H8" s="14">
-        <v>9</v>
-      </c>
-      <c r="I8" s="14">
-        <v>9</v>
-      </c>
-      <c r="J8" s="14">
-        <v>9</v>
-      </c>
-      <c r="K8" s="14">
-        <v>9</v>
-      </c>
-      <c r="L8" s="15">
-        <v>9</v>
-      </c>
-      <c r="M8" s="15">
+      <c r="E8" s="8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8">
+        <v>9</v>
+      </c>
+      <c r="I8" s="8">
+        <v>9</v>
+      </c>
+      <c r="J8" s="8">
+        <v>9</v>
+      </c>
+      <c r="K8" s="8">
+        <v>9</v>
+      </c>
+      <c r="L8" s="9">
+        <v>9</v>
+      </c>
+      <c r="M8" s="9">
         <v>8</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="9">
         <v>7</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="9">
         <v>6</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="9">
         <v>5</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="9">
         <v>4</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="9">
         <v>3</v>
       </c>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="6"/>
+      <c r="S8" s="8">
+        <v>3</v>
+      </c>
+      <c r="T8" s="8">
+        <v>3</v>
+      </c>
+      <c r="U8" s="8">
+        <v>3</v>
+      </c>
+      <c r="V8" s="10">
+        <v>3</v>
+      </c>
+      <c r="W8" s="10">
+        <v>2</v>
+      </c>
+      <c r="X8" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2488,66 +2741,94 @@
       <c r="D9" s="2">
         <v>10</v>
       </c>
-      <c r="E9" s="14">
-        <v>10</v>
-      </c>
-      <c r="F9" s="14">
-        <v>9</v>
-      </c>
-      <c r="G9" s="14">
+      <c r="E9" s="8">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8">
         <v>8</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="8">
         <v>8</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="8">
         <v>7</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="8">
         <v>7</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="8">
         <v>6</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="9">
         <v>6</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="9">
         <v>5</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="9">
         <v>4</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="9">
         <v>3</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="9">
         <v>2</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="9">
         <v>2</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="9">
         <v>1</v>
       </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="6"/>
+      <c r="S9" s="8">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0</v>
+      </c>
+      <c r="U9" s="8">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <v>0</v>
+      </c>
+      <c r="W9" s="10">
+        <v>0</v>
+      </c>
+      <c r="X9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>47</v>
       </c>
@@ -2557,66 +2838,94 @@
       <c r="D10" s="2">
         <v>10</v>
       </c>
-      <c r="E10" s="14">
-        <v>10</v>
-      </c>
-      <c r="F10" s="14">
-        <v>10</v>
-      </c>
-      <c r="G10" s="14">
-        <v>9</v>
-      </c>
-      <c r="H10" s="14">
-        <v>9</v>
-      </c>
-      <c r="I10" s="14">
-        <v>9</v>
-      </c>
-      <c r="J10" s="14">
-        <v>9</v>
-      </c>
-      <c r="K10" s="14">
-        <v>9</v>
-      </c>
-      <c r="L10" s="15">
-        <v>9</v>
-      </c>
-      <c r="M10" s="15">
+      <c r="E10" s="8">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8">
+        <v>10</v>
+      </c>
+      <c r="G10" s="8">
+        <v>9</v>
+      </c>
+      <c r="H10" s="8">
+        <v>9</v>
+      </c>
+      <c r="I10" s="8">
+        <v>9</v>
+      </c>
+      <c r="J10" s="8">
+        <v>9</v>
+      </c>
+      <c r="K10" s="8">
+        <v>9</v>
+      </c>
+      <c r="L10" s="9">
+        <v>9</v>
+      </c>
+      <c r="M10" s="9">
         <v>8</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="9">
         <v>7</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="9">
         <v>7</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="9">
         <v>6</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="9">
         <v>5</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="9">
         <v>4</v>
       </c>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="6"/>
+      <c r="S10" s="8">
+        <v>4</v>
+      </c>
+      <c r="T10" s="8">
+        <v>4</v>
+      </c>
+      <c r="U10" s="8">
+        <v>4</v>
+      </c>
+      <c r="V10" s="10">
+        <v>3</v>
+      </c>
+      <c r="W10" s="10">
+        <v>3</v>
+      </c>
+      <c r="X10" s="10">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="11">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>48</v>
       </c>
@@ -2626,66 +2935,94 @@
       <c r="D11" s="2">
         <v>10</v>
       </c>
-      <c r="E11" s="14">
-        <v>10</v>
-      </c>
-      <c r="F11" s="14">
-        <v>10</v>
-      </c>
-      <c r="G11" s="14">
-        <v>10</v>
-      </c>
-      <c r="H11" s="14">
-        <v>10</v>
-      </c>
-      <c r="I11" s="14">
-        <v>9</v>
-      </c>
-      <c r="J11" s="14">
-        <v>9</v>
-      </c>
-      <c r="K11" s="14">
-        <v>9</v>
-      </c>
-      <c r="L11" s="15">
-        <v>9</v>
-      </c>
-      <c r="M11" s="15">
-        <v>9</v>
-      </c>
-      <c r="N11" s="15">
+      <c r="E11" s="8">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8">
+        <v>10</v>
+      </c>
+      <c r="H11" s="8">
+        <v>10</v>
+      </c>
+      <c r="I11" s="8">
+        <v>9</v>
+      </c>
+      <c r="J11" s="8">
+        <v>9</v>
+      </c>
+      <c r="K11" s="8">
+        <v>9</v>
+      </c>
+      <c r="L11" s="9">
+        <v>9</v>
+      </c>
+      <c r="M11" s="9">
+        <v>9</v>
+      </c>
+      <c r="N11" s="9">
         <v>8</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="9">
         <v>8</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="9">
         <v>7</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="9">
         <v>7</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="9">
         <v>6</v>
       </c>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="6"/>
+      <c r="S11" s="8">
+        <v>5</v>
+      </c>
+      <c r="T11" s="8">
+        <v>4</v>
+      </c>
+      <c r="U11" s="8">
+        <v>3</v>
+      </c>
+      <c r="V11" s="10">
+        <v>2</v>
+      </c>
+      <c r="W11" s="10">
+        <v>1</v>
+      </c>
+      <c r="X11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="3"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
@@ -2695,66 +3032,94 @@
       <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E12" s="14">
-        <v>10</v>
-      </c>
-      <c r="F12" s="14">
-        <v>10</v>
-      </c>
-      <c r="G12" s="14">
-        <v>10</v>
-      </c>
-      <c r="H12" s="14">
-        <v>10</v>
-      </c>
-      <c r="I12" s="14">
-        <v>10</v>
-      </c>
-      <c r="J12" s="14">
-        <v>9</v>
-      </c>
-      <c r="K12" s="14">
-        <v>9</v>
-      </c>
-      <c r="L12" s="15">
-        <v>9</v>
-      </c>
-      <c r="M12" s="15">
+      <c r="E12" s="8">
+        <v>10</v>
+      </c>
+      <c r="F12" s="8">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8">
+        <v>10</v>
+      </c>
+      <c r="I12" s="8">
+        <v>10</v>
+      </c>
+      <c r="J12" s="8">
+        <v>9</v>
+      </c>
+      <c r="K12" s="8">
+        <v>9</v>
+      </c>
+      <c r="L12" s="9">
+        <v>9</v>
+      </c>
+      <c r="M12" s="9">
         <v>8</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="9">
         <v>7</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="9">
         <v>7</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="9">
         <v>6</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="9">
         <v>5</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="9">
         <v>4</v>
       </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="6"/>
+      <c r="S12" s="8">
+        <v>3</v>
+      </c>
+      <c r="T12" s="8">
+        <v>3</v>
+      </c>
+      <c r="U12" s="8">
+        <v>3</v>
+      </c>
+      <c r="V12" s="10">
+        <v>2</v>
+      </c>
+      <c r="W12" s="10">
+        <v>2</v>
+      </c>
+      <c r="X12" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
@@ -2764,66 +3129,94 @@
       <c r="D13" s="2">
         <v>10</v>
       </c>
-      <c r="E13" s="14">
-        <v>10</v>
-      </c>
-      <c r="F13" s="14">
-        <v>10</v>
-      </c>
-      <c r="G13" s="14">
-        <v>10</v>
-      </c>
-      <c r="H13" s="14">
-        <v>10</v>
-      </c>
-      <c r="I13" s="14">
-        <v>9</v>
-      </c>
-      <c r="J13" s="14">
-        <v>9</v>
-      </c>
-      <c r="K13" s="14">
-        <v>9</v>
-      </c>
-      <c r="L13" s="15">
-        <v>9</v>
-      </c>
-      <c r="M13" s="15">
-        <v>9</v>
-      </c>
-      <c r="N13" s="15">
+      <c r="E13" s="8">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8">
+        <v>10</v>
+      </c>
+      <c r="I13" s="8">
+        <v>9</v>
+      </c>
+      <c r="J13" s="8">
+        <v>9</v>
+      </c>
+      <c r="K13" s="8">
+        <v>9</v>
+      </c>
+      <c r="L13" s="9">
+        <v>9</v>
+      </c>
+      <c r="M13" s="9">
+        <v>9</v>
+      </c>
+      <c r="N13" s="9">
         <v>8</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="9">
         <v>8</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="9">
         <v>7</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="9">
         <v>7</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="9">
         <v>6</v>
       </c>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="6"/>
+      <c r="S13" s="8">
+        <v>5</v>
+      </c>
+      <c r="T13" s="8">
+        <v>5</v>
+      </c>
+      <c r="U13" s="8">
+        <v>5</v>
+      </c>
+      <c r="V13" s="10">
+        <v>4</v>
+      </c>
+      <c r="W13" s="10">
+        <v>4</v>
+      </c>
+      <c r="X13" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2835,66 +3228,94 @@
       <c r="D14" s="2">
         <v>15</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="8">
         <v>15</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="8">
         <v>15</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="8">
         <v>15</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="8">
         <v>14</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="8">
         <v>14</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="8">
         <v>14</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="8">
         <v>13</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="9">
         <v>12</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="9">
         <v>11</v>
       </c>
-      <c r="N14" s="15">
-        <v>10</v>
-      </c>
-      <c r="O14" s="15">
-        <v>9</v>
-      </c>
-      <c r="P14" s="15">
+      <c r="N14" s="9">
+        <v>10</v>
+      </c>
+      <c r="O14" s="9">
+        <v>9</v>
+      </c>
+      <c r="P14" s="9">
         <v>7</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="9">
         <v>5</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14" s="9">
         <v>4</v>
       </c>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="6"/>
+      <c r="S14" s="8">
+        <v>3</v>
+      </c>
+      <c r="T14" s="8">
+        <v>2</v>
+      </c>
+      <c r="U14" s="8">
+        <v>2</v>
+      </c>
+      <c r="V14" s="10">
+        <v>1</v>
+      </c>
+      <c r="W14" s="10">
+        <v>0</v>
+      </c>
+      <c r="X14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
       <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
@@ -2904,66 +3325,94 @@
       <c r="D15" s="2">
         <v>15</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="8">
         <v>15</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="8">
         <v>15</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="8">
         <v>15</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="8">
         <v>15</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="8">
         <v>15</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="8">
         <v>14</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="8">
         <v>14</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="9">
         <v>14</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="9">
         <v>13</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="9">
         <v>12</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="9">
         <v>11</v>
       </c>
-      <c r="P15" s="15">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="15">
-        <v>9</v>
-      </c>
-      <c r="R15" s="15">
+      <c r="P15" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>9</v>
+      </c>
+      <c r="R15" s="9">
         <v>8</v>
       </c>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="6"/>
+      <c r="S15" s="8">
+        <v>8</v>
+      </c>
+      <c r="T15" s="8">
+        <v>7</v>
+      </c>
+      <c r="U15" s="8">
+        <v>6</v>
+      </c>
+      <c r="V15" s="10">
+        <v>6</v>
+      </c>
+      <c r="W15" s="10">
+        <v>5</v>
+      </c>
+      <c r="X15" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
@@ -2973,66 +3422,94 @@
       <c r="D16" s="2">
         <v>15</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="8">
         <v>15</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="8">
         <v>15</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="8">
         <v>15</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="8">
         <v>15</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="8">
         <v>15</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="8">
         <v>15</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="8">
         <v>15</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="9">
         <v>15</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="9">
         <v>14</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="9">
         <v>13</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="9">
         <v>12</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="9">
         <v>12</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q16" s="9">
         <v>12</v>
       </c>
-      <c r="R16" s="15">
-        <v>10</v>
-      </c>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="6"/>
+      <c r="R16" s="9">
+        <v>10</v>
+      </c>
+      <c r="S16" s="8">
+        <v>10</v>
+      </c>
+      <c r="T16" s="8">
+        <v>9</v>
+      </c>
+      <c r="U16" s="8">
+        <v>8</v>
+      </c>
+      <c r="V16" s="10">
+        <v>7</v>
+      </c>
+      <c r="W16" s="10">
+        <v>6</v>
+      </c>
+      <c r="X16" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="11">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="3"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
@@ -3042,66 +3519,94 @@
       <c r="D17" s="2">
         <v>15</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="8">
         <v>15</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="8">
         <v>15</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="8">
         <v>15</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="8">
         <v>15</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="8">
         <v>15</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="8">
         <v>14</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="8">
         <v>14</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="9">
         <v>13</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="9">
         <v>13</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="9">
         <v>13</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="9">
         <v>12</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P17" s="9">
         <v>11</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="9">
         <v>11</v>
       </c>
-      <c r="R17" s="15">
-        <v>10</v>
-      </c>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="6"/>
+      <c r="R17" s="9">
+        <v>10</v>
+      </c>
+      <c r="S17" s="8">
+        <v>10</v>
+      </c>
+      <c r="T17" s="8">
+        <v>9</v>
+      </c>
+      <c r="U17" s="8">
+        <v>9</v>
+      </c>
+      <c r="V17" s="10">
+        <v>8</v>
+      </c>
+      <c r="W17" s="10">
+        <v>7</v>
+      </c>
+      <c r="X17" s="10">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="3"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
       <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
@@ -3111,66 +3616,94 @@
       <c r="D18" s="2">
         <v>20</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="8">
         <v>20</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="8">
         <v>20</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="8">
         <v>20</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="8">
         <v>20</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="8">
         <v>20</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="8">
         <v>20</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="8">
         <v>20</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="9">
         <v>20</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="9">
         <v>19</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="9">
         <v>18</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="9">
         <v>17</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="9">
         <v>15</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="9">
         <v>14</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="9">
         <v>12</v>
       </c>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="6"/>
+      <c r="S18" s="8">
+        <v>11</v>
+      </c>
+      <c r="T18" s="8">
+        <v>10</v>
+      </c>
+      <c r="U18" s="8">
+        <v>9</v>
+      </c>
+      <c r="V18" s="10">
+        <v>8</v>
+      </c>
+      <c r="W18" s="10">
+        <v>7</v>
+      </c>
+      <c r="X18" s="10">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="11">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="3"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3182,66 +3715,94 @@
       <c r="D19" s="2">
         <v>9</v>
       </c>
-      <c r="E19" s="14">
-        <v>10</v>
-      </c>
-      <c r="F19" s="14">
-        <v>10</v>
-      </c>
-      <c r="G19" s="14">
-        <v>10</v>
-      </c>
-      <c r="H19" s="14">
-        <v>10</v>
-      </c>
-      <c r="I19" s="14">
-        <v>10</v>
-      </c>
-      <c r="J19" s="14">
-        <v>10</v>
-      </c>
-      <c r="K19" s="14">
-        <v>10</v>
-      </c>
-      <c r="L19" s="15">
-        <v>10</v>
-      </c>
-      <c r="M19" s="15">
-        <v>10</v>
-      </c>
-      <c r="N19" s="15">
-        <v>10</v>
-      </c>
-      <c r="O19" s="15">
-        <v>9</v>
-      </c>
-      <c r="P19" s="15">
-        <v>9</v>
-      </c>
-      <c r="Q19" s="15">
-        <v>9</v>
-      </c>
-      <c r="R19" s="15">
+      <c r="E19" s="8">
+        <v>10</v>
+      </c>
+      <c r="F19" s="8">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8">
+        <v>10</v>
+      </c>
+      <c r="H19" s="8">
+        <v>10</v>
+      </c>
+      <c r="I19" s="8">
+        <v>10</v>
+      </c>
+      <c r="J19" s="8">
+        <v>10</v>
+      </c>
+      <c r="K19" s="8">
+        <v>10</v>
+      </c>
+      <c r="L19" s="9">
+        <v>10</v>
+      </c>
+      <c r="M19" s="9">
+        <v>10</v>
+      </c>
+      <c r="N19" s="9">
+        <v>10</v>
+      </c>
+      <c r="O19" s="9">
+        <v>9</v>
+      </c>
+      <c r="P19" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>9</v>
+      </c>
+      <c r="R19" s="9">
         <v>8</v>
       </c>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="6"/>
+      <c r="S19" s="8">
+        <v>8</v>
+      </c>
+      <c r="T19" s="8">
+        <v>8</v>
+      </c>
+      <c r="U19" s="8">
+        <v>8</v>
+      </c>
+      <c r="V19" s="10">
+        <v>7</v>
+      </c>
+      <c r="W19" s="10">
+        <v>6</v>
+      </c>
+      <c r="X19" s="10">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="11">
+        <v>5</v>
+      </c>
+      <c r="AA19" s="11">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="11">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="3"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
       <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
@@ -3251,66 +3812,94 @@
       <c r="D20" s="2">
         <v>9</v>
       </c>
-      <c r="E20" s="14">
-        <v>10</v>
-      </c>
-      <c r="F20" s="14">
-        <v>10</v>
-      </c>
-      <c r="G20" s="14">
-        <v>10</v>
-      </c>
-      <c r="H20" s="14">
-        <v>10</v>
-      </c>
-      <c r="I20" s="14">
-        <v>10</v>
-      </c>
-      <c r="J20" s="14">
-        <v>10</v>
-      </c>
-      <c r="K20" s="14">
-        <v>10</v>
-      </c>
-      <c r="L20" s="15">
-        <v>10</v>
-      </c>
-      <c r="M20" s="15">
-        <v>10</v>
-      </c>
-      <c r="N20" s="15">
-        <v>10</v>
-      </c>
-      <c r="O20" s="15">
-        <v>10</v>
-      </c>
-      <c r="P20" s="15">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="15">
-        <v>10</v>
-      </c>
-      <c r="R20" s="15">
-        <v>10</v>
-      </c>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="6"/>
+      <c r="E20" s="8">
+        <v>10</v>
+      </c>
+      <c r="F20" s="8">
+        <v>10</v>
+      </c>
+      <c r="G20" s="8">
+        <v>10</v>
+      </c>
+      <c r="H20" s="8">
+        <v>10</v>
+      </c>
+      <c r="I20" s="8">
+        <v>10</v>
+      </c>
+      <c r="J20" s="8">
+        <v>10</v>
+      </c>
+      <c r="K20" s="8">
+        <v>10</v>
+      </c>
+      <c r="L20" s="9">
+        <v>10</v>
+      </c>
+      <c r="M20" s="9">
+        <v>10</v>
+      </c>
+      <c r="N20" s="9">
+        <v>10</v>
+      </c>
+      <c r="O20" s="9">
+        <v>10</v>
+      </c>
+      <c r="P20" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>10</v>
+      </c>
+      <c r="R20" s="9">
+        <v>10</v>
+      </c>
+      <c r="S20" s="8">
+        <v>9</v>
+      </c>
+      <c r="T20" s="8">
+        <v>9</v>
+      </c>
+      <c r="U20" s="8">
+        <v>9</v>
+      </c>
+      <c r="V20" s="10">
+        <v>9</v>
+      </c>
+      <c r="W20" s="10">
+        <v>8</v>
+      </c>
+      <c r="X20" s="10">
+        <v>7</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="11">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="11">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="11">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="3"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
       <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
@@ -3320,66 +3909,94 @@
       <c r="D21" s="2">
         <v>9</v>
       </c>
-      <c r="E21" s="14">
-        <v>10</v>
-      </c>
-      <c r="F21" s="14">
-        <v>10</v>
-      </c>
-      <c r="G21" s="14">
-        <v>10</v>
-      </c>
-      <c r="H21" s="14">
-        <v>10</v>
-      </c>
-      <c r="I21" s="14">
-        <v>10</v>
-      </c>
-      <c r="J21" s="14">
-        <v>10</v>
-      </c>
-      <c r="K21" s="14">
-        <v>10</v>
-      </c>
-      <c r="L21" s="15">
-        <v>10</v>
-      </c>
-      <c r="M21" s="15">
-        <v>10</v>
-      </c>
-      <c r="N21" s="15">
-        <v>10</v>
-      </c>
-      <c r="O21" s="15">
-        <v>10</v>
-      </c>
-      <c r="P21" s="15">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="15">
-        <v>10</v>
-      </c>
-      <c r="R21" s="15">
-        <v>10</v>
-      </c>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="6"/>
+      <c r="E21" s="8">
+        <v>10</v>
+      </c>
+      <c r="F21" s="8">
+        <v>10</v>
+      </c>
+      <c r="G21" s="8">
+        <v>10</v>
+      </c>
+      <c r="H21" s="8">
+        <v>10</v>
+      </c>
+      <c r="I21" s="8">
+        <v>10</v>
+      </c>
+      <c r="J21" s="8">
+        <v>10</v>
+      </c>
+      <c r="K21" s="8">
+        <v>10</v>
+      </c>
+      <c r="L21" s="9">
+        <v>10</v>
+      </c>
+      <c r="M21" s="9">
+        <v>10</v>
+      </c>
+      <c r="N21" s="9">
+        <v>10</v>
+      </c>
+      <c r="O21" s="9">
+        <v>10</v>
+      </c>
+      <c r="P21" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>10</v>
+      </c>
+      <c r="R21" s="9">
+        <v>10</v>
+      </c>
+      <c r="S21" s="8">
+        <v>9</v>
+      </c>
+      <c r="T21" s="8">
+        <v>9</v>
+      </c>
+      <c r="U21" s="8">
+        <v>9</v>
+      </c>
+      <c r="V21" s="10">
+        <v>9</v>
+      </c>
+      <c r="W21" s="10">
+        <v>9</v>
+      </c>
+      <c r="X21" s="10">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>7</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="11">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="11">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>2</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="3"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
       <c r="B22" s="1" t="s">
         <v>58</v>
       </c>
@@ -3389,71 +4006,94 @@
       <c r="D22" s="2">
         <v>10</v>
       </c>
-      <c r="E22" s="14">
-        <v>10</v>
-      </c>
-      <c r="F22" s="14">
-        <v>10</v>
-      </c>
-      <c r="G22" s="14">
-        <v>10</v>
-      </c>
-      <c r="H22" s="14">
-        <v>10</v>
-      </c>
-      <c r="I22" s="14">
-        <v>10</v>
-      </c>
-      <c r="J22" s="14">
-        <v>10</v>
-      </c>
-      <c r="K22" s="14">
-        <v>10</v>
-      </c>
-      <c r="L22" s="15">
-        <v>10</v>
-      </c>
-      <c r="M22" s="15">
-        <v>10</v>
-      </c>
-      <c r="N22" s="15">
-        <v>10</v>
-      </c>
-      <c r="O22" s="15">
-        <v>10</v>
-      </c>
-      <c r="P22" s="15">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="15">
-        <v>10</v>
-      </c>
-      <c r="R22" s="15">
-        <v>10</v>
-      </c>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="6"/>
+      <c r="E22" s="8">
+        <v>10</v>
+      </c>
+      <c r="F22" s="8">
+        <v>10</v>
+      </c>
+      <c r="G22" s="8">
+        <v>10</v>
+      </c>
+      <c r="H22" s="8">
+        <v>10</v>
+      </c>
+      <c r="I22" s="8">
+        <v>10</v>
+      </c>
+      <c r="J22" s="8">
+        <v>10</v>
+      </c>
+      <c r="K22" s="8">
+        <v>10</v>
+      </c>
+      <c r="L22" s="9">
+        <v>10</v>
+      </c>
+      <c r="M22" s="9">
+        <v>10</v>
+      </c>
+      <c r="N22" s="9">
+        <v>10</v>
+      </c>
+      <c r="O22" s="9">
+        <v>10</v>
+      </c>
+      <c r="P22" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>10</v>
+      </c>
+      <c r="R22" s="9">
+        <v>10</v>
+      </c>
+      <c r="S22" s="8">
+        <v>9</v>
+      </c>
+      <c r="T22" s="8">
+        <v>9</v>
+      </c>
+      <c r="U22" s="8">
+        <v>9</v>
+      </c>
+      <c r="V22" s="10">
+        <v>8</v>
+      </c>
+      <c r="W22" s="10">
+        <v>8</v>
+      </c>
+      <c r="X22" s="10">
+        <v>8</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>7</v>
+      </c>
+      <c r="Z22" s="11">
+        <v>6</v>
+      </c>
+      <c r="AA22" s="11">
+        <v>6</v>
+      </c>
+      <c r="AB22" s="11">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="11">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="11">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF22" s="11">
+        <v>3</v>
+      </c>
+      <c r="AG22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="S1:Y1"/>
     <mergeCell ref="Z1:AF1"/>
@@ -3461,6 +4101,11 @@
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="E1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3471,10 +4116,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
